--- a/Data Tracker.xlsx
+++ b/Data Tracker.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\OneDrive\Documents\Wageningen\University\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\OneDrive\Documents\Wageningen\University\Thesis\WURthesisGithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB495BDA-DAD0-456D-9A76-19300B3EA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0245BA-1FB1-401B-BB84-236A4712FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{D36AC524-343E-4F85-A404-2DDC80872131}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Variables v2" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Sources" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +38,54 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BE1BB509-412F-4F8A-8BEE-ED5E2CD8C330}</author>
+    <author>tc={53FB1FB0-3B58-4AC1-9AD3-5D732D1B638E}</author>
+    <author>tc={05AA0612-F8FC-4C93-A4AD-BBB42380D363}</author>
+    <author>tc={F739259E-04FB-4F79-9BD1-29CBC8EBB20E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{BE1BB509-412F-4F8A-8BEE-ED5E2CD8C330}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data is certainly good enough, but the EIA-860M provides data at an even smaller resolution, at the generator level rather than the plant level. Additionally, the EIA 860M is available up to September 2024. 
+Reply:
+    According to the September EIA-860M, 28 power plants in the contiguous US (157.2 MW total) that appeared in this dataset are now retired. Only 1 of these power plants was retired between the reported time of the power plant Energy Atlas data (June 2024) and September 2024 EIA-860M.
+One power plant that appears in the Energy Atlas does not appear in the Sept. 2024 EIA-860M. (Exeter Bulk Plant Array)</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{53FB1FB0-3B58-4AC1-9AD3-5D732D1B638E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The oldest generator in the database is from 1891, but the data on retired power plants only goes back to 2002</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="2" shapeId="0" xr:uid="{05AA0612-F8FC-4C93-A4AD-BBB42380D363}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Calculated using the EIA Energy Atlas data and the HIFLD transmission line data. </t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="3" shapeId="0" xr:uid="{F739259E-04FB-4F79-9BD1-29CBC8EBB20E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Can’t find historical data, but there are LCOE Projections on NREL’s SLOPE Data Viewer</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E9487263-AACA-457F-9164-4E8BA8EDB29D}</author>
@@ -87,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
   <si>
     <t>Variable</t>
   </si>
@@ -426,9 +475,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Could not find spatial data on interconnection points, but could find for transmission lines in general</t>
-  </si>
-  <si>
     <t>FAO: GAEZ 4 - Suitability and Attainable Yield</t>
   </si>
   <si>
@@ -504,13 +550,164 @@
   </si>
   <si>
     <t>The System Advisor Model™ (SAM™) is a free desktop application for techno-economic analysis of energy technologies. It is used by project managers and engineers, policy analysts, technology developers, and researchers to investigate questions about the technical, economic, and financial feasibility of renewable energy projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not find spatial data on interconnection points, but could find for transmission lines in general. It does also appear that there used to be publicly acessible data on substations, but after recent attacks on substations the data has been made secure and for official use only, so I can not access without a government sponsor </t>
+  </si>
+  <si>
+    <t>Larger commercial projects, such as a community solar farm, usually need to be connected to a three-phase distribution line. Utility-scale projects either connect directly to a substation or a transmission line of 69 kV or higher. 
+Unless a solar farm is installed next to transmission lines or substations, the solar contractor needs to install a generation tie to connect the clean energy project to the grid. These are expensive to construct and can have a significant impact on the project’s return on investment. Therefore, close proximity to transmission lines or a substation is preferable.</t>
+  </si>
+  <si>
+    <t>Temporal Resolution</t>
+  </si>
+  <si>
+    <t>Geographical extent</t>
+  </si>
+  <si>
+    <t>Geographical Resolution</t>
+  </si>
+  <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Earliest Data</t>
+  </si>
+  <si>
+    <t>Latest Data</t>
+  </si>
+  <si>
+    <t>EIA Energy Atlas</t>
+  </si>
+  <si>
+    <t>EIA-860M</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>USA + PR</t>
+  </si>
+  <si>
+    <t>Point - Generator</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Dist. To HV power line</t>
+  </si>
+  <si>
+    <t>Land Usage/ Surrounding Land Usage?</t>
+  </si>
+  <si>
+    <t>Average Slope</t>
+  </si>
+  <si>
+    <t>Avg. Retail Price of Electricity</t>
+  </si>
+  <si>
+    <t>CSV (includes Lat/Long)</t>
+  </si>
+  <si>
+    <t>CSV, geoJSON, SHP</t>
+  </si>
+  <si>
+    <t>N/A (Cross-sectional)</t>
+  </si>
+  <si>
+    <t>Point - Plant</t>
+  </si>
+  <si>
+    <t>Power Plant Location/MW/Type</t>
+  </si>
+  <si>
+    <t>Generator Location/MW/Type</t>
+  </si>
+  <si>
+    <t>Time Series Required?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Average daily total solar resource (GHI) (1998-2016)</t>
+  </si>
+  <si>
+    <t>NREL Solar Resource Maps and Data</t>
+  </si>
+  <si>
+    <t>N/A (Aggregate)</t>
+  </si>
+  <si>
+    <t>Raster - 0.038-degree latitude by 0.038-degree longitude (nominally 4 km x 4 km)</t>
+  </si>
+  <si>
+    <t>TIF</t>
+  </si>
+  <si>
+    <t>Estimated Land Fair Market Value</t>
+  </si>
+  <si>
+    <t>Cont. USA</t>
+  </si>
+  <si>
+    <t>HIFLD</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Likely to find Time-Series</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Raster - spatial resolution of 30 meters</t>
+  </si>
+  <si>
+    <t>EIA Electricity Data Browser</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t># Customer Accounts (by sector by state)</t>
+  </si>
+  <si>
+    <t>Levelize Cost of Energy by Source</t>
+  </si>
+  <si>
+    <t>Power generator avg. construction cost by type</t>
+  </si>
+  <si>
+    <t>EIA-860: Construction cost data</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Can't find good data</t>
+  </si>
+  <si>
+    <t>To be caluculated using elevation data from geodata package</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,13 +731,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -556,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -565,6 +780,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,6 +1123,27 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-11-11T13:01:42.18" personId="{A43D04A3-36C8-4BF4-B0EF-2BA42F03F902}" id="{BE1BB509-412F-4F8A-8BEE-ED5E2CD8C330}">
+    <text xml:space="preserve">This data is certainly good enough, but the EIA-860M provides data at an even smaller resolution, at the generator level rather than the plant level. Additionally, the EIA 860M is available up to September 2024. </text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-11-11T13:32:52.94" personId="{A43D04A3-36C8-4BF4-B0EF-2BA42F03F902}" id="{42647E2D-0EDF-4D5B-9EDE-7B8F4C7E563C}" parentId="{BE1BB509-412F-4F8A-8BEE-ED5E2CD8C330}">
+    <text>According to the September EIA-860M, 28 power plants in the contiguous US (157.2 MW total) that appeared in this dataset are now retired. Only 1 of these power plants was retired between the reported time of the power plant Energy Atlas data (June 2024) and September 2024 EIA-860M.
+One power plant that appears in the Energy Atlas does not appear in the Sept. 2024 EIA-860M. (Exeter Bulk Plant Array)</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2024-11-11T13:06:28.57" personId="{A43D04A3-36C8-4BF4-B0EF-2BA42F03F902}" id="{53FB1FB0-3B58-4AC1-9AD3-5D732D1B638E}">
+    <text>The oldest generator in the database is from 1891, but the data on retired power plants only goes back to 2002</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2024-11-11T14:17:20.25" personId="{A43D04A3-36C8-4BF4-B0EF-2BA42F03F902}" id="{05AA0612-F8FC-4C93-A4AD-BBB42380D363}">
+    <text xml:space="preserve">Calculated using the EIA Energy Atlas data and the HIFLD transmission line data. </text>
+  </threadedComment>
+  <threadedComment ref="B11" dT="2024-11-11T15:51:02.82" personId="{A43D04A3-36C8-4BF4-B0EF-2BA42F03F902}" id="{F739259E-04FB-4F79-9BD1-29CBC8EBB20E}">
+    <text>Can’t find historical data, but there are LCOE Projections on NREL’s SLOPE Data Viewer</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C2" dT="2024-10-18T08:33:06.31" personId="{A43D04A3-36C8-4BF4-B0EF-2BA42F03F902}" id="{E9487263-AACA-457F-9164-4E8BA8EDB29D}">
     <text xml:space="preserve">For estimating solar energy potential for an area, the best variables from the attached table would be:
 GHI (Global Horizontal Irradiance):
@@ -934,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D9757-2FB6-40C8-AD98-3C3854247702}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -946,9 +1184,10 @@
     <col min="2" max="2" width="54.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="64.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -965,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -973,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -981,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -992,26 +1231,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1019,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1030,10 +1269,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1041,10 +1280,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1052,10 +1291,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1063,10 +1302,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="59" x14ac:dyDescent="0.75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="118" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1074,17 +1313,20 @@
         <v>6</v>
       </c>
       <c r="C12" t="str">
-        <f>Sheet2!B12</f>
+        <f>'Data Sources'!B12</f>
         <v>US Dept. of Homeland Security - Homeland Infrastructure Foundation Level Database (HIFLD)</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+        <v>112</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1092,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1103,10 +1345,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1114,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
@@ -1136,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
@@ -1144,10 +1386,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
@@ -1198,7 +1440,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.75">
@@ -1234,18 +1476,384 @@
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" display="For utility-scale solar to be economically feasible, it must be less than a mile from a three-phase transmission line or within a few miles of a substation, which can convert direct current from a solar project into alternating current for the electrical grid (Solar Land Lease 2022) " xr:uid="{0DE6AAC0-5999-40F1-BA96-2CE4AD487270}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{EBCBD1F6-68B3-4B05-9F31-8A14F0E4420D}"/>
+    <hyperlink ref="F12" r:id="rId3" display="https://www.greenlancer.com/post/interconnection-commercial-solar-projects" xr:uid="{67C9756F-9361-485E-8F27-88129C62B69D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3501D6-AAD0-457F-A2AA-309A99FC0788}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="42.953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.76953125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.2265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.04296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45444</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="4">
+        <v>37257</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45536</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>1998</v>
+      </c>
+      <c r="D4">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>2010</v>
+      </c>
+      <c r="D5">
+        <v>2010</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>2008</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="4">
+        <v>36892</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45505</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="4">
+        <v>39448</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45505</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12">
+        <v>2013</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="C13" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="EIA" xr:uid="{229BA666-A7DD-401E-A29F-777B83614219}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BFC5B77D-9614-4E90-A796-CD446B0BE253}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A6B7B208-FA5F-4CB7-8868-862ADEBB81E3}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{35358EB6-7CCD-4D40-85AE-228D017D0DB1}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{EEBD903C-7CCB-4C32-9673-077807454033}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{768885EE-E48F-42E6-9821-9B727AA871BE}"/>
+    <hyperlink ref="B9" r:id="rId7" location="/topic/7?agg=0,1&amp;geo=g&amp;endsec=vg&amp;linechart=ELEC.PRICE.US-ALL.M~ELEC.PRICE.US-RES.M~ELEC.PRICE.US-COM.M~ELEC.PRICE.US-IND.M&amp;columnchart=ELEC.PRICE.US-ALL.M~ELEC.PRICE.US-RES.M~ELEC.PRICE.US-COM.M~ELEC.PRICE.US-IND." xr:uid="{FBB8AD24-C554-495F-AFB3-CB49C7EC5A66}"/>
+    <hyperlink ref="B10" r:id="rId8" location="/topic/56?agg=0,1&amp;geo=g&amp;endsec=vg&amp;linechart=ELEC.CUSTOMERS.US-ALL.M~ELEC.CUSTOMERS.US-RES.M~ELEC.CUSTOMERS.US-COM.M~ELEC.CUSTOMERS.US-IND.M&amp;columnchart=ELEC.CUSTOMERS.US-ALL.M~ELEC.CUSTOMERS.US-RES.M~ELEC.CUSTOMERS.US-COM.M~ELEC.CUSTOMERS.US-IND.M&amp;map=ELEC.CUSTOMERS.US-TRA.M&amp;freq=M&amp;start=200801&amp;end=202408&amp;ctype=map&amp;ltype=pin&amp;rtype=s&amp;maptype=0&amp;rse=0&amp;pin=" xr:uid="{7C23181E-5339-4D68-AA80-220F5CD40484}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{FC3114CC-CDA9-4005-8B55-67207EED1FE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4786E872-9DE7-4C79-97AA-C7147A82E0F6}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1361,7 +1969,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
@@ -1492,24 +2100,24 @@
         <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -1518,7 +2126,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
@@ -1526,10 +2134,10 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -1540,10 +2148,10 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1554,10 +2162,10 @@
         <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Data Tracker.xlsx
+++ b/Data Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\OneDrive\Documents\Wageningen\University\Thesis\WURthesisGithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0245BA-1FB1-401B-BB84-236A4712FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E6B20-9054-4AF9-8DB4-D9A7A97D162C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{D36AC524-343E-4F85-A404-2DDC80872131}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{D36AC524-343E-4F85-A404-2DDC80872131}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,18 +730,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1174,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D9757-2FB6-40C8-AD98-3C3854247702}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1486,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3501D6-AAD0-457F-A2AA-309A99FC0788}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1851,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4786E872-9DE7-4C79-97AA-C7147A82E0F6}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
